--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -163,9 +168,6 @@
     <t>Consultar grupos</t>
   </si>
   <si>
-    <t>Consultar proximos pagos</t>
-  </si>
-  <si>
     <t>CRU Alumno</t>
   </si>
   <si>
@@ -229,9 +231,6 @@
     <t xml:space="preserve">El profesor visualiza todos los pagos realizados correctamente por los alumnos </t>
   </si>
   <si>
-    <t>El usuario del sistema visualiza los pagos proximos a efectuarse ya sea de alumnos o de profesores</t>
-  </si>
-  <si>
     <t>El director debera poder administrar la informacion de los alumnos creando y modificando los registros</t>
   </si>
   <si>
@@ -296,12 +295,18 @@
   </si>
   <si>
     <t>El director podra administrar la informacion de un cliente que rente el espacio</t>
+  </si>
+  <si>
+    <t>El profesor visualiza los pagos proximos a efectuarse de los alumnos</t>
+  </si>
+  <si>
+    <t>Consultar proximos pagos de alumnos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,6 +444,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -732,7 +740,7 @@
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,10 +799,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>37</v>
@@ -815,10 +823,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>38</v>
@@ -839,7 +847,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>39</v>
@@ -863,10 +871,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>38</v>
@@ -887,7 +895,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
@@ -911,10 +919,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>38</v>
@@ -935,7 +943,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>41</v>
@@ -959,7 +967,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>40</v>
@@ -983,10 +991,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>38</v>
@@ -1007,10 +1015,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>38</v>
@@ -1031,10 +1039,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>38</v>
@@ -1055,10 +1063,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>38</v>
@@ -1079,10 +1087,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>38</v>
@@ -1103,10 +1111,10 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>38</v>
@@ -1124,13 +1132,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>38</v>
@@ -1148,13 +1156,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>38</v>
@@ -1172,13 +1180,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>38</v>
@@ -1196,13 +1204,13 @@
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>38</v>
@@ -1220,13 +1228,13 @@
     </row>
     <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>38</v>
@@ -1244,13 +1252,13 @@
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>38</v>
@@ -1268,13 +1276,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>38</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>Columna</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>Consultar proximos pagos de alumnos</t>
+  </si>
+  <si>
+    <t>CU - 22</t>
+  </si>
+  <si>
+    <t>Inciar sesion</t>
+  </si>
+  <si>
+    <t>En este caso de uso el usuario del sistema ingresa a con algun tipo de autenticacion para poder ver y modificar sus datos.</t>
   </si>
 </sst>
 </file>
@@ -739,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,14 +1307,28 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Semestre\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>Columna</t>
   </si>
@@ -311,11 +311,29 @@
   <si>
     <t>En este caso de uso el usuario del sistema ingresa a con algun tipo de autenticacion para poder ver y modificar sus datos.</t>
   </si>
+  <si>
+    <t>CU - 23</t>
+  </si>
+  <si>
+    <t>CU - 24</t>
+  </si>
+  <si>
+    <t>Consultar profesores</t>
+  </si>
+  <si>
+    <t>Consultar clientes</t>
+  </si>
+  <si>
+    <t>El director puede  consultar todos los profesores en la institución.</t>
+  </si>
+  <si>
+    <t>El director puede consultar todos los clientes registrados.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,11 +763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,23 +1350,51 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="B28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1376,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Semestre\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>Columna</t>
   </si>
@@ -311,29 +311,11 @@
   <si>
     <t>En este caso de uso el usuario del sistema ingresa a con algun tipo de autenticacion para poder ver y modificar sus datos.</t>
   </si>
-  <si>
-    <t>CU - 23</t>
-  </si>
-  <si>
-    <t>CU - 24</t>
-  </si>
-  <si>
-    <t>Consultar profesores</t>
-  </si>
-  <si>
-    <t>Consultar clientes</t>
-  </si>
-  <si>
-    <t>El director puede  consultar todos los profesores en la institución.</t>
-  </si>
-  <si>
-    <t>El director puede consultar todos los clientes registrados.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,51 +1332,23 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1422,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Semestre\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -279,9 +279,6 @@
     <t>El director debera guardar un registro de una pago especificando que profesor es la fuente</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultar todos los grupos </t>
-  </si>
-  <si>
     <t>El director debera visualizar todos los grupos existentes en el sistema y los alumnos</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>El director puede consultar todos los clientes registrados.</t>
+  </si>
+  <si>
+    <t>Consultar grupos y rentas</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,10 +898,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>38</v>
@@ -1162,10 +1162,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>38</v>
@@ -1258,10 +1258,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>38</v>
@@ -1306,10 +1306,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>38</v>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>38</v>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>38</v>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>38</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,11 +763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
   <si>
     <t>Columna</t>
   </si>
@@ -195,12 +190,6 @@
     <t>Generar reporte de ingresos y egresos</t>
   </si>
   <si>
-    <t>Registrar egreso</t>
-  </si>
-  <si>
-    <t>Registrar gasto promocional</t>
-  </si>
-  <si>
     <t>CRU promoción</t>
   </si>
   <si>
@@ -249,12 +238,6 @@
     <t>El director puede visualizar movimientos mensuales e imprimir un reporte general de todas las trasacciones.</t>
   </si>
   <si>
-    <t>El director puede registrar un gasto realizado</t>
-  </si>
-  <si>
-    <t>El director puede registrar un gasto de una promocion de facebook</t>
-  </si>
-  <si>
     <t>Cambiar alumno de grupo</t>
   </si>
   <si>
@@ -328,12 +311,33 @@
   </si>
   <si>
     <t>Consultar grupos y rentas</t>
+  </si>
+  <si>
+    <t>CRU egreso</t>
+  </si>
+  <si>
+    <t>CRU gasto promocional</t>
+  </si>
+  <si>
+    <t>El director puede administrar gastos de promociones de facebook</t>
+  </si>
+  <si>
+    <t>El director puede administrar gastos realizados</t>
+  </si>
+  <si>
+    <t>CU - 25</t>
+  </si>
+  <si>
+    <t>El director puede consultar cualquier tipo de gasto de la institución</t>
+  </si>
+  <si>
+    <t>Consultar gastos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,8 +470,36 @@
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -766,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,10 +858,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>37</v>
@@ -850,10 +882,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>38</v>
@@ -874,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>39</v>
@@ -898,10 +930,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>38</v>
@@ -922,7 +954,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>42</v>
@@ -946,10 +978,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>38</v>
@@ -970,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>41</v>
@@ -994,7 +1026,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>40</v>
@@ -1018,10 +1050,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>38</v>
@@ -1042,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>43</v>
@@ -1066,10 +1098,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>38</v>
@@ -1090,10 +1122,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>38</v>
@@ -1114,10 +1146,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>38</v>
@@ -1138,10 +1170,10 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>38</v>
@@ -1162,10 +1194,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>38</v>
@@ -1186,10 +1218,10 @@
         <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>38</v>
@@ -1210,10 +1242,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>38</v>
@@ -1234,7 +1266,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>51</v>
@@ -1258,10 +1290,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>38</v>
@@ -1282,10 +1314,10 @@
         <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>38</v>
@@ -1306,10 +1338,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>38</v>
@@ -1327,13 +1359,13 @@
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>38</v>
@@ -1351,13 +1383,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>38</v>
@@ -1375,13 +1407,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>38</v>
@@ -1398,13 +1430,27 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
   </sheetData>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -145,9 +150,6 @@
     <t>CU- 14</t>
   </si>
   <si>
-    <t>vacío</t>
-  </si>
-  <si>
     <t>vacio</t>
   </si>
   <si>
@@ -332,12 +334,15 @@
   </si>
   <si>
     <t>Consultar gastos</t>
+  </si>
+  <si>
+    <t>planificado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -798,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,16 +863,16 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -882,13 +887,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -906,13 +911,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -930,16 +935,16 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -954,13 +959,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -978,13 +983,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -1002,13 +1007,13 @@
         <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -1026,13 +1031,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -1050,13 +1055,13 @@
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -1074,13 +1079,13 @@
         <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -1098,13 +1103,13 @@
         <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -1122,13 +1127,13 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -1146,13 +1151,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -1170,13 +1175,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -1191,16 +1196,16 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -1215,16 +1220,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -1239,16 +1244,16 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -1263,16 +1268,16 @@
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -1287,16 +1292,16 @@
     </row>
     <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -1311,16 +1316,16 @@
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
@@ -1335,16 +1340,16 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
@@ -1359,16 +1364,16 @@
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -1383,16 +1388,16 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -1407,16 +1412,16 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -1431,16 +1436,16 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +500,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -800,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>58</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -1013,10 +1013,10 @@
         <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +500,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -800,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,10 +1037,10 @@
         <v>39</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>83</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +500,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -800,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +989,10 @@
         <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1061,10 +1061,10 @@
         <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>67</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -264,9 +264,6 @@
     <t>El director debera guardar un registro de una pago especificando que profesor es la fuente</t>
   </si>
   <si>
-    <t>El director debera visualizar todos los grupos existentes en el sistema y los alumnos</t>
-  </si>
-  <si>
     <t>CRU renta espacio</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>planificado</t>
+  </si>
+  <si>
+    <t>El director debera visualizar todos los grupos y rentas existentes en el sistema y los alumnos</t>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +869,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -935,13 +935,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>67</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -1133,10 +1133,10 @@
         <v>63</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1194,21 +1194,21 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>37</v>
@@ -1247,10 +1247,10 @@
         <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>37</v>
@@ -1295,10 +1295,10 @@
         <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>37</v>
@@ -1343,10 +1343,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>37</v>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -1388,13 +1388,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>37</v>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>37</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>37</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -342,7 +337,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +495,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -800,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1157,10 +1152,10 @@
         <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -1181,10 +1176,10 @@
         <v>73</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -1473,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -337,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,7 +500,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -795,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,10 +1277,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -1296,10 +1301,10 @@
         <v>75</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -1468,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +500,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -800,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,10 +1229,10 @@
         <v>92</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>91</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
         <v>86</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>87</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +500,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -800,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,10 +1325,10 @@
         <v>68</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F24" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>77</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>Columna</t>
   </si>
@@ -338,11 +338,20 @@
   <si>
     <t>El director debera visualizar todos los grupos y rentas existentes en el sistema y los alumnos</t>
   </si>
+  <si>
+    <t>CU - 26</t>
+  </si>
+  <si>
+    <t>Modificar cuenta de usuario</t>
+  </si>
+  <si>
+    <t>El profesor puede modificar los datos de su cuenta de usuario.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +509,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -800,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,6 +1467,30 @@
       </c>
       <c r="I29" s="6"/>
     </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
   </sheetData>
   <sortState ref="B5:H29">
     <sortCondition ref="B5:B29"/>
@@ -1473,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A762AB-906D-45DA-9D57-638DA00F5A51}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -150,9 +151,6 @@
     <t>CU- 14</t>
   </si>
   <si>
-    <t>vacio</t>
-  </si>
-  <si>
     <t>Generar recibo de pago</t>
   </si>
   <si>
@@ -346,12 +344,15 @@
   </si>
   <si>
     <t>El profesor puede modificar los datos de su cuenta de usuario.</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -809,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,13 +873,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -896,13 +897,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -920,13 +921,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -944,13 +945,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -968,13 +969,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -992,13 +993,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
@@ -1016,13 +1017,13 @@
         <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
@@ -1040,13 +1041,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
@@ -1064,16 +1065,16 @@
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -1088,16 +1089,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -1112,13 +1113,13 @@
         <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -1136,13 +1137,13 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -1160,13 +1161,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -1184,13 +1185,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -1205,16 +1206,16 @@
     </row>
     <row r="19" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
@@ -1229,16 +1230,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="6">
         <v>1</v>
@@ -1253,16 +1254,16 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="6">
         <v>1</v>
@@ -1277,16 +1278,16 @@
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
@@ -1301,16 +1302,16 @@
     </row>
     <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -1325,19 +1326,19 @@
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F24" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -1349,19 +1350,19 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F25" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -1373,19 +1374,19 @@
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -1397,19 +1398,19 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F27" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
@@ -1421,19 +1422,19 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
@@ -1445,16 +1446,16 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -1469,19 +1470,19 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F30" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
@@ -1506,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A762AB-906D-45DA-9D57-638DA00F5A51}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -352,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +509,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -810,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1382,7 @@
         <v>81</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F26" s="6">
         <v>4</v>
@@ -1479,10 +1478,10 @@
         <v>100</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F30" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
@@ -1507,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E840D764-AF9B-45FC-B51C-EFD4AAE24097}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -351,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -809,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,10 +1191,10 @@
         <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -1506,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E840D764-AF9B-45FC-B51C-EFD4AAE24097}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -352,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +509,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -810,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,10 +1262,10 @@
         <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F21" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -1507,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E6623-E6CC-4DB3-AAD6-E1ADB347C8C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -351,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -809,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1194,7 @@
         <v>102</v>
       </c>
       <c r="F18" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -1506,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E6623-E6CC-4DB3-AAD6-E1ADB347C8C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -352,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +504,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -810,11 +804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,10 +1233,10 @@
         <v>91</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F20" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1507,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDDE7F1-0000-413B-9449-ED73B7AD1888}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -346,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,7 +510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -804,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,10 +1167,10 @@
         <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F17" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -1501,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDDE7F1-0000-413B-9449-ED73B7AD1888}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -352,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +509,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -810,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94C410B-B37C-4385-809A-981D254238DF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -351,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -809,11 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H13" s="6">
         <v>1</v>
@@ -1100,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
@@ -1172,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H17" s="6">
         <v>1</v>
@@ -1196,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H18" s="6">
         <v>1</v>
@@ -1244,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
@@ -1268,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H21" s="6">
         <v>1</v>
@@ -1340,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>
@@ -1364,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H25" s="6">
         <v>1</v>
@@ -1412,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H27" s="6">
         <v>1</v>
@@ -1436,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H28" s="6">
         <v>1</v>
@@ -1506,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94C410B-B37C-4385-809A-981D254238DF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034DAB45-5281-42F5-A1D4-D52F9908E5D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1098,7 @@
         <v>102</v>
       </c>
       <c r="F14" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="6">
         <v>40</v>
@@ -1242,7 +1242,7 @@
         <v>102</v>
       </c>
       <c r="F20" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="6">
         <v>40</v>
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="F21" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="6">
         <v>40</v>
@@ -1338,7 +1338,7 @@
         <v>102</v>
       </c>
       <c r="F24" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6">
         <v>40</v>
@@ -1362,7 +1362,7 @@
         <v>102</v>
       </c>
       <c r="F25" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034DAB45-5281-42F5-A1D4-D52F9908E5D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6CDE5A62-5801-43B2-98ED-9035E9D6DCCA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6CDE5A62-5801-43B2-98ED-9035E9D6DCCA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF2458E-CE87-4EE3-A718-466A5FEB9FC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6">
         <v>40</v>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>102</v>
       </c>
       <c r="F14" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="6">
         <v>40</v>
@@ -1242,7 +1242,7 @@
         <v>102</v>
       </c>
       <c r="F20" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="6">
         <v>40</v>
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="F21" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="6">
         <v>40</v>
@@ -1338,7 +1338,7 @@
         <v>102</v>
       </c>
       <c r="F24" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="6">
         <v>40</v>
@@ -1362,7 +1362,7 @@
         <v>102</v>
       </c>
       <c r="F25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF2458E-CE87-4EE3-A718-466A5FEB9FC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629CC426-8F55-4F55-8EF4-6128F0A9A48C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>Columna</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>En proceso</t>
+  </si>
+  <si>
+    <t>en proceso</t>
   </si>
 </sst>
 </file>
@@ -813,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,13 +978,13 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
@@ -1143,13 +1146,13 @@
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6">
         <v>1</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629CC426-8F55-4F55-8EF4-6128F0A9A48C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D868990-C2D5-4CE7-8125-C9E5D314FB89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -817,7 +817,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,13 +882,13 @@
         <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6">
         <v>40</v>
@@ -981,7 +981,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G9" s="6">
         <v>40</v>
@@ -1149,7 +1149,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G16" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D868990-C2D5-4CE7-8125-C9E5D314FB89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2B2DB-0DCD-4F91-B446-32E93EC9B70F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,7 +817,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="6">
         <v>40</v>
@@ -981,7 +981,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="6">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G9" s="6">
         <v>40</v>
@@ -1005,7 +1005,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G16" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2B2DB-0DCD-4F91-B446-32E93EC9B70F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F210DF-0DAD-4B7E-9B04-0057FEEBA9F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,7 +817,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="6">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G5" s="6">
         <v>40</v>
@@ -906,10 +906,10 @@
         <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F6" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6">
         <v>40</v>
@@ -981,7 +981,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="6">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="G9" s="6">
         <v>40</v>
@@ -1149,7 +1149,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="6">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="G16" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F210DF-0DAD-4B7E-9B04-0057FEEBA9F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFAF863-FF98-4F66-8F48-2BFDE04626E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,7 +817,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +981,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="6">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G9" s="6">
         <v>40</v>
@@ -1149,7 +1149,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="6">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="G16" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFAF863-FF98-4F66-8F48-2BFDE04626E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B940A720-498E-4786-AD4D-46BA194E9399}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -817,7 +817,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="6">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G5" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B940A720-498E-4786-AD4D-46BA194E9399}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8D6B9C-371A-4EDA-8A96-1F20D449017B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
         <v>97</v>
       </c>
       <c r="F23" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8D6B9C-371A-4EDA-8A96-1F20D449017B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>Columna</t>
   </si>
@@ -351,11 +345,20 @@
   <si>
     <t>en proceso</t>
   </si>
+  <si>
+    <t>CU - 27</t>
+  </si>
+  <si>
+    <t>El director puede consultar el historial de pagos de un cliente</t>
+  </si>
+  <si>
+    <t>Consultar historial de pagos de cliente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +516,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -813,11 +816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,6 +1498,30 @@
       </c>
       <c r="I30" s="6"/>
     </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
   </sheetData>
   <sortState ref="B5:H29">
     <sortCondition ref="B5:B29"/>
@@ -1510,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C9C10-3D5B-41E2-A31C-2758B11EE26E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -340,9 +346,6 @@
     <t>El profesor puede modificar los datos de su cuenta de usuario.</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>en proceso</t>
   </si>
   <si>
@@ -353,12 +356,15 @@
   </si>
   <si>
     <t>Consultar historial de pagos de cliente</t>
+  </si>
+  <si>
+    <t>Hecho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,7 +522,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -816,11 +822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +891,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F5" s="6">
         <v>4.5</v>
@@ -909,7 +915,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F6" s="6">
         <v>11</v>
@@ -981,10 +987,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F9" s="6">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="G9" s="6">
         <v>40</v>
@@ -1005,13 +1011,13 @@
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F10" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
@@ -1077,7 +1083,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
@@ -1101,7 +1107,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F14" s="6">
         <v>3</v>
@@ -1149,7 +1155,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="6">
         <v>7.5</v>
@@ -1173,7 +1179,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F17" s="6">
         <v>3</v>
@@ -1197,7 +1203,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F18" s="6">
         <v>4</v>
@@ -1245,7 +1251,7 @@
         <v>91</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F20" s="6">
         <v>5</v>
@@ -1269,7 +1275,7 @@
         <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F21" s="6">
         <v>4</v>
@@ -1341,7 +1347,7 @@
         <v>67</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F24" s="6">
         <v>4</v>
@@ -1365,7 +1371,7 @@
         <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
@@ -1389,13 +1395,13 @@
         <v>81</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F26" s="6">
         <v>4</v>
       </c>
       <c r="G26" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
@@ -1413,7 +1419,7 @@
         <v>85</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -1437,7 +1443,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
@@ -1461,13 +1467,13 @@
         <v>96</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F29" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
@@ -1485,13 +1491,13 @@
         <v>100</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F30" s="6">
         <v>6</v>
       </c>
       <c r="G30" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
@@ -1500,13 +1506,13 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>97</v>
@@ -1537,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B6" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C9C10-3D5B-41E2-A31C-2758B11EE26E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA127323-F5A9-4D83-ADE3-588F167603C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="6">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="G9" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA127323-F5A9-4D83-ADE3-588F167603C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185136B-725A-4179-9E20-05CFAC1AADC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1350,7 @@
         <v>106</v>
       </c>
       <c r="F24" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185136B-725A-4179-9E20-05CFAC1AADC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A061C-7AB0-4C6B-AA29-91ED65187D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185136B-725A-4179-9E20-05CFAC1AADC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84E7D17-7667-488E-87DD-4AD97172E749}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84E7D17-7667-488E-87DD-4AD97172E749}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2F7166-9372-4E23-8AF2-F66DC0AB0458}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,10 +1059,10 @@
         <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2F7166-9372-4E23-8AF2-F66DC0AB0458}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8495D3F6-ACB2-4688-87FA-1F3B4D2B6A41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,13 +1131,13 @@
         <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H15" s="6">
         <v>1</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8495D3F6-ACB2-4688-87FA-1F3B4D2B6A41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37EE53EB-C05F-4FFF-B053-931C1C38FA42}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,7 @@
         <v>106</v>
       </c>
       <c r="F15" s="6">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G15" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37EE53EB-C05F-4FFF-B053-931C1C38FA42}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF89CF7-2F1D-4D74-AC9C-70D8BC76C548}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H12" s="6">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H23" s="6">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H31" s="6">
         <v>1</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF89CF7-2F1D-4D74-AC9C-70D8BC76C548}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0722CCAA-E573-4543-9FF4-A0D30C67B9A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,10 +1323,10 @@
         <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F23" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0722CCAA-E573-4543-9FF4-A0D30C67B9A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B968B5A5-FF7D-47FE-8077-D22B5D3329C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1326,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B968B5A5-FF7D-47FE-8077-D22B5D3329C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2C038-3D5F-466D-AEBE-AA035E1C1A2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,10 +1035,10 @@
         <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="6">
         <v>90</v>
@@ -1515,10 +1515,10 @@
         <v>105</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F31" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G31" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2C038-3D5F-466D-AEBE-AA035E1C1A2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82D199CB-A60C-41AB-BF9E-B3390182BF4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,10 +1515,10 @@
         <v>105</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F31" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82D199CB-A60C-41AB-BF9E-B3390182BF4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AAAE0A-7BC8-4096-9EC4-E399D1A39BA6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1038,7 @@
         <v>102</v>
       </c>
       <c r="F11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AAAE0A-7BC8-4096-9EC4-E399D1A39BA6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32EDF2D8-5A7A-4197-9B1F-8A8093BDBC39}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,7 @@
         <v>106</v>
       </c>
       <c r="F15" s="6">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32EDF2D8-5A7A-4197-9B1F-8A8093BDBC39}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E252CD3B-C839-45AE-A716-3D74DACE39B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,10 +1035,10 @@
         <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F11" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E252CD3B-C839-45AE-A716-3D74DACE39B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FD094E7-7D91-4021-9A4F-B2BD6D0589BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
         <v>106</v>
       </c>
       <c r="F6" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FD094E7-7D91-4021-9A4F-B2BD6D0589BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A20CE3C9-6AD6-4D03-B18B-B0194F566A52}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,7 +918,7 @@
         <v>106</v>
       </c>
       <c r="F6" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A20CE3C9-6AD6-4D03-B18B-B0194F566A52}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573A0DE-0537-4097-B3EA-EDF913DDE567}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1323,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573A0DE-0537-4097-B3EA-EDF913DDE567}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5B0F15-90E6-43BC-9DF6-A437C2900DD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,13 +1227,13 @@
         <v>89</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F19" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H19" s="6">
         <v>1</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5B0F15-90E6-43BC-9DF6-A437C2900DD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{633A122D-204B-46D9-9C36-7F900553467D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
         <v>97</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{633A122D-204B-46D9-9C36-7F900553467D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F37059-63C5-43DF-8738-BA73C14B02A3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1230,7 @@
         <v>102</v>
       </c>
       <c r="F19" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="6">
         <v>90</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F37059-63C5-43DF-8738-BA73C14B02A3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1904A13-7F09-4B56-AEAE-DAD02CCF03A9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,10 @@
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F16" s="6">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="G16" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1904A13-7F09-4B56-AEAE-DAD02CCF03A9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27438273-4318-4438-9169-E5DCCD522537}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
         <v>97</v>
       </c>
       <c r="F7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27438273-4318-4438-9169-E5DCCD522537}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B9CA1D8-E184-4504-B8B1-FFEB83655090}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,10 +939,10 @@
         <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F7" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B9CA1D8-E184-4504-B8B1-FFEB83655090}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD4B56-E5A3-41F3-AD83-AC0E8CC25DB2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>Columna</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>El profesor puede modificar los datos de su cuenta de usuario.</t>
-  </si>
-  <si>
-    <t>en proceso</t>
   </si>
   <si>
     <t>CU - 27</t>
@@ -826,7 +823,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +888,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="6">
         <v>4.5</v>
@@ -915,7 +912,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="6">
         <v>14</v>
@@ -939,7 +936,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="6">
         <v>5</v>
@@ -987,7 +984,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="6">
         <v>9.5</v>
@@ -1011,7 +1008,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="6">
         <v>4</v>
@@ -1035,7 +1032,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="6">
         <v>6</v>
@@ -1059,7 +1056,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="6">
         <v>4</v>
@@ -1083,7 +1080,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
@@ -1107,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="6">
         <v>3</v>
@@ -1131,7 +1128,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="6">
         <v>6</v>
@@ -1155,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="6">
         <v>9.5</v>
@@ -1179,7 +1176,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="6">
         <v>3</v>
@@ -1203,7 +1200,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="6">
         <v>4</v>
@@ -1227,10 +1224,10 @@
         <v>89</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F19" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" s="6">
         <v>90</v>
@@ -1251,7 +1248,7 @@
         <v>91</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="6">
         <v>7</v>
@@ -1275,7 +1272,7 @@
         <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="6">
         <v>4</v>
@@ -1299,13 +1296,13 @@
         <v>49</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F22" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H22" s="6">
         <v>1</v>
@@ -1323,7 +1320,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>
@@ -1347,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="6">
         <v>5</v>
@@ -1371,7 +1368,7 @@
         <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
@@ -1395,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="6">
         <v>4</v>
@@ -1419,7 +1416,7 @@
         <v>85</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -1443,7 +1440,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
@@ -1467,7 +1464,7 @@
         <v>96</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="6">
         <v>5</v>
@@ -1491,7 +1488,7 @@
         <v>100</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="6">
         <v>6</v>
@@ -1506,16 +1503,16 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="6">
         <v>7</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD4B56-E5A3-41F3-AD83-AC0E8CC25DB2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D69C1-14E5-4D99-9A99-5501951B228E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1155,7 @@
         <v>105</v>
       </c>
       <c r="F16" s="6">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="G16" s="6">
         <v>40</v>

--- a/Plantillas/Plantilla de Casos de Uso.xlsx
+++ b/Plantillas/Plantilla de Casos de Uso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D69C1-14E5-4D99-9A99-5501951B228E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52B7B7-2E15-4785-AEC6-0D993E53AB75}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>Columna</t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>Consultar gastos</t>
-  </si>
-  <si>
-    <t>planificado</t>
   </si>
   <si>
     <t>El director debera visualizar todos los grupos y rentas existentes en el sistema y los alumnos</t>
@@ -823,7 +820,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="6">
         <v>4.5</v>
@@ -912,7 +909,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="6">
         <v>14</v>
@@ -936,13 +933,13 @@
         <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="6">
         <v>5</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
@@ -960,13 +957,13 @@
         <v>79</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
@@ -984,7 +981,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="6">
         <v>9.5</v>
@@ -1008,7 +1005,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="6">
         <v>4</v>
@@ -1032,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="6">
         <v>6</v>
@@ -1056,7 +1053,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="6">
         <v>4</v>
@@ -1080,7 +1077,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
@@ -1104,7 +1101,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="6">
         <v>3</v>
@@ -1128,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="6">
         <v>6</v>
@@ -1152,7 +1149,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="6">
         <v>11.5</v>
@@ -1176,7 +1173,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="6">
         <v>3</v>
@@ -1200,7 +1197,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="6">
         <v>4</v>
@@ -1218,13 +1215,13 @@
         <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="6">
         <v>8</v>
@@ -1248,7 +1245,7 @@
         <v>91</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="6">
         <v>7</v>
@@ -1272,7 +1269,7 @@
         <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="6">
         <v>4</v>
@@ -1296,7 +1293,7 @@
         <v>49</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="6">
         <v>5</v>
@@ -1320,7 +1317,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>
@@ -1344,7 +1341,7 @@
         <v>67</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="6">
         <v>5</v>
@@ -1368,7 +1365,7 @@
         <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
@@ -1392,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="6">
         <v>4</v>
@@ -1416,7 +1413,7 @@
         <v>85</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -1440,7 +1437,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
@@ -1464,7 +1461,7 @@
         <v>96</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="6">
         <v>5</v>
@@ -1479,16 +1476,16 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="6">
         <v>6</v>
@@ -1503,16 +1500,16 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="6">
         <v>7</v>
